--- a/logfc_Analysis/logfc_WS_HC/meta_wsgc_t.xlsx
+++ b/logfc_Analysis/logfc_WS_HC/meta_wsgc_t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_WS_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7211D343-704E-48EA-89AE-923434259580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB281D-7BA7-4C5A-B284-A04F2C02B48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{992C52A7-8558-4BAA-B0FA-3DCE6D9577A4}"/>
+    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{992C52A7-8558-4BAA-B0FA-3DCE6D9577A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="586">
   <si>
     <t>TAIR</t>
   </si>
@@ -1762,6 +1762,46 @@
   </si>
   <si>
     <t>GO:0000003, GO:0000228, GO:0005622, GO:0005634, GO:0005694, GO:0006139, GO:0006259, GO:0006310, GO:0006807, GO:0007049, GO:0007126, GO:0008152, GO:0009987, GO:0043226, GO:0044238, GO:0044464</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic Reticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacuole, Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2125,15 +2165,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AA9886-D9C0-497C-A031-253E5E2DDC89}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2144,19 +2184,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2167,19 +2210,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839301</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2190,19 +2236,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>839565</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2213,19 +2262,22 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>839520</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2236,19 +2288,22 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>837035</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2259,19 +2314,22 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>837340</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2282,19 +2340,22 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>837378</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2305,19 +2366,22 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>837399</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2328,19 +2392,22 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>837737</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2351,19 +2418,22 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>837791</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2374,19 +2444,22 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>837881</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
       <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2397,19 +2470,22 @@
         <v>63</v>
       </c>
       <c r="D12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>837958</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2420,19 +2496,22 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>838158</v>
       </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
       <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2443,19 +2522,22 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
+        <v>582</v>
+      </c>
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>838349</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2466,19 +2548,22 @@
         <v>79</v>
       </c>
       <c r="D15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>839749</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2489,19 +2574,22 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
+        <v>578</v>
+      </c>
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>839807</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2512,19 +2600,22 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
+        <v>581</v>
+      </c>
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>839974</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2535,19 +2626,22 @@
         <v>95</v>
       </c>
       <c r="D18" t="s">
+        <v>580</v>
+      </c>
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>841164</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2558,19 +2652,22 @@
         <v>101</v>
       </c>
       <c r="D19" t="s">
+        <v>580</v>
+      </c>
+      <c r="E19" t="s">
         <v>102</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>841244</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>103</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -2581,19 +2678,22 @@
         <v>107</v>
       </c>
       <c r="D20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>841472</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>109</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2604,19 +2704,22 @@
         <v>113</v>
       </c>
       <c r="D21" t="s">
+        <v>577</v>
+      </c>
+      <c r="E21" t="s">
         <v>114</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>841847</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>115</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -2627,19 +2730,22 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E22" t="s">
         <v>119</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>841962</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>120</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -2650,19 +2756,22 @@
         <v>123</v>
       </c>
       <c r="D23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E23" t="s">
         <v>124</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>843468</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>125</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -2673,19 +2782,22 @@
         <v>95</v>
       </c>
       <c r="D24" t="s">
+        <v>580</v>
+      </c>
+      <c r="E24" t="s">
         <v>128</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>843512</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>129</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -2696,19 +2808,22 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
+        <v>583</v>
+      </c>
+      <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>843603</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -2719,19 +2834,22 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>578</v>
+      </c>
+      <c r="E26" t="s">
         <v>138</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>843918</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>139</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2742,19 +2860,22 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
+        <v>581</v>
+      </c>
+      <c r="E27" t="s">
         <v>143</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>844297</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>144</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -2765,19 +2886,22 @@
         <v>147</v>
       </c>
       <c r="D28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E28" t="s">
         <v>148</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>815065</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>149</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -2788,19 +2912,22 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>578</v>
+      </c>
+      <c r="E29" t="s">
         <v>153</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>815211</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>154</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -2811,19 +2938,22 @@
         <v>157</v>
       </c>
       <c r="D30" t="s">
+        <v>581</v>
+      </c>
+      <c r="E30" t="s">
         <v>158</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>815960</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>159</v>
       </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>160</v>
       </c>
@@ -2834,19 +2964,22 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
+        <v>581</v>
+      </c>
+      <c r="E31" t="s">
         <v>163</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>815962</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>164</v>
       </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2857,19 +2990,22 @@
         <v>167</v>
       </c>
       <c r="D32" t="s">
+        <v>578</v>
+      </c>
+      <c r="E32" t="s">
         <v>168</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>816289</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>169</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -2880,19 +3016,22 @@
         <v>172</v>
       </c>
       <c r="D33" t="s">
+        <v>580</v>
+      </c>
+      <c r="E33" t="s">
         <v>173</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>816310</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>174</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -2903,19 +3042,22 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>577</v>
+      </c>
+      <c r="E34" t="s">
         <v>177</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>816466</v>
       </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
       <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -2926,19 +3068,22 @@
         <v>180</v>
       </c>
       <c r="D35" t="s">
+        <v>578</v>
+      </c>
+      <c r="E35" t="s">
         <v>181</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>816514</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>182</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -2949,16 +3094,19 @@
         <v>186</v>
       </c>
       <c r="D36" t="s">
+        <v>577</v>
+      </c>
+      <c r="E36" t="s">
         <v>187</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>817306</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -2969,19 +3117,22 @@
         <v>191</v>
       </c>
       <c r="D37" t="s">
+        <v>577</v>
+      </c>
+      <c r="E37" t="s">
         <v>192</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>817851</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>193</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -2992,19 +3143,22 @@
         <v>197</v>
       </c>
       <c r="D38" t="s">
+        <v>580</v>
+      </c>
+      <c r="E38" t="s">
         <v>198</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>818086</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>199</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -3015,19 +3169,22 @@
         <v>202</v>
       </c>
       <c r="D39" t="s">
+        <v>578</v>
+      </c>
+      <c r="E39" t="s">
         <v>203</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>818264</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>204</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -3038,19 +3195,22 @@
         <v>207</v>
       </c>
       <c r="D40" t="s">
+        <v>578</v>
+      </c>
+      <c r="E40" t="s">
         <v>208</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>818331</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>209</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -3061,19 +3221,22 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
+        <v>578</v>
+      </c>
+      <c r="E41" t="s">
         <v>213</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>818416</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>214</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>215</v>
       </c>
@@ -3084,19 +3247,22 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
+        <v>578</v>
+      </c>
+      <c r="E42" t="s">
         <v>217</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>818631</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>218</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -3107,19 +3273,22 @@
         <v>221</v>
       </c>
       <c r="D43" t="s">
+        <v>578</v>
+      </c>
+      <c r="E43" t="s">
         <v>222</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>818915</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>223</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>225</v>
       </c>
@@ -3130,19 +3299,22 @@
         <v>227</v>
       </c>
       <c r="D44" t="s">
+        <v>577</v>
+      </c>
+      <c r="E44" t="s">
         <v>228</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>821081</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>229</v>
       </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -3153,19 +3325,22 @@
         <v>232</v>
       </c>
       <c r="D45" t="s">
+        <v>578</v>
+      </c>
+      <c r="E45" t="s">
         <v>233</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>819740</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>234</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>235</v>
       </c>
@@ -3176,19 +3351,22 @@
         <v>237</v>
       </c>
       <c r="D46" t="s">
+        <v>579</v>
+      </c>
+      <c r="E46" t="s">
         <v>238</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>819896</v>
       </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
       <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>240</v>
       </c>
@@ -3199,19 +3377,22 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
+        <v>578</v>
+      </c>
+      <c r="E47" t="s">
         <v>242</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>820148</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>243</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -3222,19 +3403,22 @@
         <v>247</v>
       </c>
       <c r="D48" t="s">
+        <v>580</v>
+      </c>
+      <c r="E48" t="s">
         <v>248</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>820201</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>249</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -3245,19 +3429,22 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
+        <v>580</v>
+      </c>
+      <c r="E49" t="s">
         <v>253</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2745881</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>254</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -3268,19 +3455,22 @@
         <v>258</v>
       </c>
       <c r="D50" t="s">
+        <v>578</v>
+      </c>
+      <c r="E50" t="s">
         <v>259</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>820345</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>260</v>
       </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>261</v>
       </c>
@@ -3291,16 +3481,19 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>580</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>264</v>
       </c>
@@ -3311,19 +3504,22 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
+        <v>579</v>
+      </c>
+      <c r="E52" t="s">
         <v>266</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>820581</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>267</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>268</v>
       </c>
@@ -3334,19 +3530,22 @@
         <v>270</v>
       </c>
       <c r="D53" t="s">
+        <v>578</v>
+      </c>
+      <c r="E53" t="s">
         <v>271</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>821377</v>
       </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
       <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>273</v>
       </c>
@@ -3357,19 +3556,22 @@
         <v>275</v>
       </c>
       <c r="D54" t="s">
+        <v>580</v>
+      </c>
+      <c r="E54" t="s">
         <v>276</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>821573</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>277</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>279</v>
       </c>
@@ -3380,19 +3582,22 @@
         <v>281</v>
       </c>
       <c r="D55" t="s">
+        <v>578</v>
+      </c>
+      <c r="E55" t="s">
         <v>282</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>822024</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>283</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>285</v>
       </c>
@@ -3403,19 +3608,22 @@
         <v>287</v>
       </c>
       <c r="D56" t="s">
+        <v>578</v>
+      </c>
+      <c r="E56" t="s">
         <v>288</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>822375</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>289</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -3426,19 +3634,22 @@
         <v>293</v>
       </c>
       <c r="D57" t="s">
+        <v>578</v>
+      </c>
+      <c r="E57" t="s">
         <v>294</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>823559</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>297</v>
       </c>
@@ -3449,19 +3660,22 @@
         <v>299</v>
       </c>
       <c r="D58" t="s">
+        <v>578</v>
+      </c>
+      <c r="E58" t="s">
         <v>300</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>824294</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>302</v>
       </c>
@@ -3472,19 +3686,22 @@
         <v>304</v>
       </c>
       <c r="D59" t="s">
+        <v>579</v>
+      </c>
+      <c r="E59" t="s">
         <v>305</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>824384</v>
       </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
       <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -3495,19 +3712,22 @@
         <v>309</v>
       </c>
       <c r="D60" t="s">
+        <v>580</v>
+      </c>
+      <c r="E60" t="s">
         <v>310</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>824405</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>311</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -3518,19 +3738,22 @@
         <v>314</v>
       </c>
       <c r="D61" t="s">
+        <v>578</v>
+      </c>
+      <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>824451</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>316</v>
       </c>
-      <c r="G61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>317</v>
       </c>
@@ -3541,19 +3764,22 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
+        <v>582</v>
+      </c>
+      <c r="E62" t="s">
         <v>319</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>824478</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>320</v>
       </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>321</v>
       </c>
@@ -3564,19 +3790,22 @@
         <v>323</v>
       </c>
       <c r="D63" t="s">
+        <v>579</v>
+      </c>
+      <c r="E63" t="s">
         <v>324</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>824597</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>325</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>326</v>
       </c>
@@ -3587,19 +3816,22 @@
         <v>328</v>
       </c>
       <c r="D64" t="s">
+        <v>578</v>
+      </c>
+      <c r="E64" t="s">
         <v>329</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>824649</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>330</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>332</v>
       </c>
@@ -3610,19 +3842,22 @@
         <v>334</v>
       </c>
       <c r="D65" t="s">
+        <v>578</v>
+      </c>
+      <c r="E65" t="s">
         <v>335</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>824651</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>336</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>337</v>
       </c>
@@ -3633,19 +3868,22 @@
         <v>113</v>
       </c>
       <c r="D66" t="s">
+        <v>580</v>
+      </c>
+      <c r="E66" t="s">
         <v>339</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>824681</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>340</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>341</v>
       </c>
@@ -3656,19 +3894,22 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
+        <v>578</v>
+      </c>
+      <c r="E67" t="s">
         <v>343</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>824777</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>344</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>345</v>
       </c>
@@ -3679,19 +3920,22 @@
         <v>347</v>
       </c>
       <c r="D68" t="s">
+        <v>584</v>
+      </c>
+      <c r="E68" t="s">
         <v>348</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>824863</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>349</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>351</v>
       </c>
@@ -3702,19 +3946,22 @@
         <v>353</v>
       </c>
       <c r="D69" t="s">
+        <v>578</v>
+      </c>
+      <c r="E69" t="s">
         <v>354</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>824986</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>355</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>357</v>
       </c>
@@ -3725,19 +3972,22 @@
         <v>95</v>
       </c>
       <c r="D70" t="s">
+        <v>584</v>
+      </c>
+      <c r="E70" t="s">
         <v>359</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>828060</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>360</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>361</v>
       </c>
@@ -3748,19 +3998,22 @@
         <v>363</v>
       </c>
       <c r="D71" t="s">
+        <v>578</v>
+      </c>
+      <c r="E71" t="s">
         <v>364</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>827091</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>365</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>366</v>
       </c>
@@ -3771,19 +4024,22 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>579</v>
+      </c>
+      <c r="E72" t="s">
         <v>368</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>827153</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>369</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>370</v>
       </c>
@@ -3794,19 +4050,22 @@
         <v>372</v>
       </c>
       <c r="D73" t="s">
+        <v>578</v>
+      </c>
+      <c r="E73" t="s">
         <v>373</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>827328</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>374</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>376</v>
       </c>
@@ -3817,19 +4076,22 @@
         <v>378</v>
       </c>
       <c r="D74" t="s">
+        <v>581</v>
+      </c>
+      <c r="E74" t="s">
         <v>379</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>827494</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>380</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>381</v>
       </c>
@@ -3840,19 +4102,22 @@
         <v>207</v>
       </c>
       <c r="D75" t="s">
+        <v>578</v>
+      </c>
+      <c r="E75" t="s">
         <v>383</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>827512</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>384</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>385</v>
       </c>
@@ -3863,19 +4128,22 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
+        <v>583</v>
+      </c>
+      <c r="E76" t="s">
         <v>387</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>827637</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>388</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>390</v>
       </c>
@@ -3886,19 +4154,22 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
+        <v>581</v>
+      </c>
+      <c r="E77" t="s">
         <v>392</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>827757</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>393</v>
       </c>
-      <c r="G77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>394</v>
       </c>
@@ -3909,19 +4180,22 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
+        <v>578</v>
+      </c>
+      <c r="E78" t="s">
         <v>396</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>828241</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>397</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>398</v>
       </c>
@@ -3932,19 +4206,22 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
+        <v>578</v>
+      </c>
+      <c r="E79" t="s">
         <v>400</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>828557</v>
       </c>
-      <c r="F79" t="s">
-        <v>9</v>
-      </c>
       <c r="G79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>401</v>
       </c>
@@ -3955,19 +4232,22 @@
         <v>403</v>
       </c>
       <c r="D80" t="s">
+        <v>577</v>
+      </c>
+      <c r="E80" t="s">
         <v>404</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>828716</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>405</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>406</v>
       </c>
@@ -3978,19 +4258,22 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
+        <v>582</v>
+      </c>
+      <c r="E81" t="s">
         <v>408</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>828782</v>
       </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
       <c r="G81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>409</v>
       </c>
@@ -4001,19 +4284,22 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
+        <v>577</v>
+      </c>
+      <c r="E82" t="s">
         <v>411</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>828812</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>412</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>414</v>
       </c>
@@ -4024,19 +4310,22 @@
         <v>416</v>
       </c>
       <c r="D83" t="s">
+        <v>579</v>
+      </c>
+      <c r="E83" t="s">
         <v>417</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>828816</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>418</v>
       </c>
-      <c r="G83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>419</v>
       </c>
@@ -4047,19 +4336,22 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
+        <v>578</v>
+      </c>
+      <c r="E84" t="s">
         <v>421</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>828883</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>422</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>423</v>
       </c>
@@ -4070,19 +4362,22 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
+        <v>580</v>
+      </c>
+      <c r="E85" t="s">
         <v>425</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>828972</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>426</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>427</v>
       </c>
@@ -4093,19 +4388,22 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
+        <v>577</v>
+      </c>
+      <c r="E86" t="s">
         <v>429</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>829007</v>
       </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
       <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>430</v>
       </c>
@@ -4116,19 +4414,22 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
+        <v>580</v>
+      </c>
+      <c r="E87" t="s">
         <v>432</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>829993</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>433</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>435</v>
       </c>
@@ -4139,19 +4440,22 @@
         <v>437</v>
       </c>
       <c r="D88" t="s">
+        <v>578</v>
+      </c>
+      <c r="E88" t="s">
         <v>438</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>830160</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>439</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>441</v>
       </c>
@@ -4162,19 +4466,22 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
+        <v>580</v>
+      </c>
+      <c r="E89" t="s">
         <v>443</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>831904</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>444</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>445</v>
       </c>
@@ -4185,19 +4492,22 @@
         <v>447</v>
       </c>
       <c r="D90" t="s">
+        <v>580</v>
+      </c>
+      <c r="E90" t="s">
         <v>448</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>831809</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>449</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>450</v>
       </c>
@@ -4208,19 +4518,22 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
+        <v>580</v>
+      </c>
+      <c r="E91" t="s">
         <v>452</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>830485</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>453</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>454</v>
       </c>
@@ -4231,19 +4544,22 @@
         <v>456</v>
       </c>
       <c r="D92" t="s">
+        <v>580</v>
+      </c>
+      <c r="E92" t="s">
         <v>457</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>830702</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>458</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>459</v>
       </c>
@@ -4254,19 +4570,22 @@
         <v>461</v>
       </c>
       <c r="D93" t="s">
+        <v>581</v>
+      </c>
+      <c r="E93" t="s">
         <v>462</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>830984</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>463</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -4277,16 +4596,19 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
+        <v>580</v>
+      </c>
+      <c r="E94" t="s">
         <v>466</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>831112</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>468</v>
       </c>
@@ -4297,19 +4619,22 @@
         <v>470</v>
       </c>
       <c r="D95" t="s">
+        <v>578</v>
+      </c>
+      <c r="E95" t="s">
         <v>471</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>831171</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>472</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>474</v>
       </c>
@@ -4320,19 +4645,22 @@
         <v>476</v>
       </c>
       <c r="D96" t="s">
+        <v>585</v>
+      </c>
+      <c r="E96" t="s">
         <v>477</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>831546</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>478</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>479</v>
       </c>
@@ -4343,19 +4671,22 @@
         <v>481</v>
       </c>
       <c r="D97" t="s">
+        <v>577</v>
+      </c>
+      <c r="E97" t="s">
         <v>482</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>831569</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>483</v>
       </c>
-      <c r="G97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>484</v>
       </c>
@@ -4366,19 +4697,22 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
+        <v>580</v>
+      </c>
+      <c r="E98" t="s">
         <v>486</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>832340</v>
       </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
       <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>488</v>
       </c>
@@ -4389,19 +4723,22 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
+        <v>577</v>
+      </c>
+      <c r="E99" t="s">
         <v>490</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>832359</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>491</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>493</v>
       </c>
@@ -4412,19 +4749,22 @@
         <v>495</v>
       </c>
       <c r="D100" t="s">
+        <v>578</v>
+      </c>
+      <c r="E100" t="s">
         <v>496</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>833946</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>497</v>
       </c>
-      <c r="G100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>498</v>
       </c>
@@ -4435,19 +4775,22 @@
         <v>500</v>
       </c>
       <c r="D101" t="s">
+        <v>581</v>
+      </c>
+      <c r="E101" t="s">
         <v>501</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>833947</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>502</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>503</v>
       </c>
@@ -4458,19 +4801,22 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>577</v>
+      </c>
+      <c r="E102" t="s">
         <v>505</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>834350</v>
       </c>
-      <c r="F102" t="s">
-        <v>9</v>
-      </c>
       <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>506</v>
       </c>
@@ -4481,19 +4827,22 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>577</v>
+      </c>
+      <c r="E103" t="s">
         <v>508</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>834483</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>509</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>510</v>
       </c>
@@ -4504,19 +4853,22 @@
         <v>512</v>
       </c>
       <c r="D104" t="s">
+        <v>580</v>
+      </c>
+      <c r="E104" t="s">
         <v>513</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>834706</v>
       </c>
-      <c r="F104" t="s">
-        <v>9</v>
-      </c>
       <c r="G104" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>514</v>
       </c>
@@ -4527,19 +4879,22 @@
         <v>207</v>
       </c>
       <c r="D105" t="s">
+        <v>578</v>
+      </c>
+      <c r="E105" t="s">
         <v>516</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>834718</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>517</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>518</v>
       </c>
@@ -4550,19 +4905,22 @@
         <v>520</v>
       </c>
       <c r="D106" t="s">
+        <v>581</v>
+      </c>
+      <c r="E106" t="s">
         <v>521</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>834730</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>522</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>523</v>
       </c>
@@ -4573,19 +4931,22 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>578</v>
+      </c>
+      <c r="E107" t="s">
         <v>525</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>834798</v>
       </c>
-      <c r="F107" t="s">
-        <v>9</v>
-      </c>
       <c r="G107" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>526</v>
       </c>
@@ -4596,19 +4957,22 @@
         <v>95</v>
       </c>
       <c r="D108" t="s">
+        <v>580</v>
+      </c>
+      <c r="E108" t="s">
         <v>528</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>835046</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>529</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>531</v>
       </c>
@@ -4619,19 +4983,22 @@
         <v>533</v>
       </c>
       <c r="D109" t="s">
+        <v>578</v>
+      </c>
+      <c r="E109" t="s">
         <v>534</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>835217</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>535</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>537</v>
       </c>
@@ -4642,16 +5009,19 @@
         <v>539</v>
       </c>
       <c r="D110" t="s">
+        <v>577</v>
+      </c>
+      <c r="E110" t="s">
         <v>540</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>835297</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>542</v>
       </c>
@@ -4662,19 +5032,22 @@
         <v>544</v>
       </c>
       <c r="D111" t="s">
+        <v>578</v>
+      </c>
+      <c r="E111" t="s">
         <v>545</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>835435</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>546</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>547</v>
       </c>
@@ -4685,19 +5058,22 @@
         <v>549</v>
       </c>
       <c r="D112" t="s">
+        <v>582</v>
+      </c>
+      <c r="E112" t="s">
         <v>550</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>835519</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>551</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>552</v>
       </c>
@@ -4708,19 +5084,22 @@
         <v>554</v>
       </c>
       <c r="D113" t="s">
+        <v>578</v>
+      </c>
+      <c r="E113" t="s">
         <v>555</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>835532</v>
       </c>
-      <c r="F113" t="s">
-        <v>9</v>
-      </c>
       <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>557</v>
       </c>
@@ -4731,19 +5110,22 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>577</v>
+      </c>
+      <c r="E114" t="s">
         <v>559</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>835804</v>
       </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
       <c r="G114" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>560</v>
       </c>
@@ -4754,19 +5136,22 @@
         <v>113</v>
       </c>
       <c r="D115" t="s">
+        <v>580</v>
+      </c>
+      <c r="E115" t="s">
         <v>562</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>835956</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>563</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>564</v>
       </c>
@@ -4777,19 +5162,22 @@
         <v>566</v>
       </c>
       <c r="D116" t="s">
+        <v>580</v>
+      </c>
+      <c r="E116" t="s">
         <v>567</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>836242</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>568</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>570</v>
       </c>
@@ -4800,15 +5188,18 @@
         <v>572</v>
       </c>
       <c r="D117" t="s">
+        <v>578</v>
+      </c>
+      <c r="E117" t="s">
         <v>573</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>836733</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>574</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>575</v>
       </c>
     </row>
